--- a/biology/Botanique/Marquise_de_Vivens/Marquise_de_Vivens.xlsx
+++ b/biology/Botanique/Marquise_de_Vivens/Marquise_de_Vivens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Marquise de Vivens' est un cultivar de rosier obtenu en 1885 par l'obtenteur lyonnais Francis Dubreuil (1842-1916). Il rend hommage à une amatrice de roses de l'époque, châtelaine dans le département de la Loire.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier présente un buisson dense au feuillage vert foncé et aux rameaux presque inermes, pouvant s'élever à 150 cm. Ses fleurs sont rose carmin aux revers presque blancs virant au rose chair. Elles sont grandes (9 cm de diamètre)[2] et doubles (17-25 pétales) en forme de coupes et fleurissent en solitaires ou petits bouquets. La floraison est remontante. Ses cynorhodons sont longs[1]. Elles sont fortement parfumées.
-Sa zone de rusticité est de 6b à 9b ; il résiste donc bien aux hivers rigoureux[1]. On croyait cette rose perdue, mais elle a été redécouverte au début du XXIe siècle en Australie[3] où elle a été commercialisée dès 1894. On peut l'admirer à la roseraie de l'État de Victoria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier présente un buisson dense au feuillage vert foncé et aux rameaux presque inermes, pouvant s'élever à 150 cm. Ses fleurs sont rose carmin aux revers presque blancs virant au rose chair. Elles sont grandes (9 cm de diamètre) et doubles (17-25 pétales) en forme de coupes et fleurissent en solitaires ou petits bouquets. La floraison est remontante. Ses cynorhodons sont longs. Elles sont fortement parfumées.
+Sa zone de rusticité est de 6b à 9b ; il résiste donc bien aux hivers rigoureux. On croyait cette rose perdue, mais elle a été redécouverte au début du XXIe siècle en Australie où elle a été commercialisée dès 1894. On peut l'admirer à la roseraie de l'État de Victoria.
 </t>
         </is>
       </c>
